--- a/SOLICITANTES 2019.xlsx
+++ b/SOLICITANTES 2019.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="345">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -1051,6 +1051,15 @@
   </si>
   <si>
     <t>GUADALUPE CARRILLO DELGADO</t>
+  </si>
+  <si>
+    <t>QWEQWR</t>
+  </si>
+  <si>
+    <t>QWR</t>
+  </si>
+  <si>
+    <t>QRQWR</t>
   </si>
 </sst>
 </file>
@@ -6312,8 +6321,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:R254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14943,7 +14952,9 @@
       <c r="A216" s="66">
         <v>214</v>
       </c>
-      <c r="B216" s="2"/>
+      <c r="B216" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -14958,7 +14969,9 @@
       <c r="A217" s="66">
         <v>215</v>
       </c>
-      <c r="B217" s="2"/>
+      <c r="B217" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -14973,7 +14986,9 @@
       <c r="A218" s="66">
         <v>216</v>
       </c>
-      <c r="B218" s="2"/>
+      <c r="B218" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
